--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_3_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1797999.613797453</v>
+        <v>1723667.78743916</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>301853.0035786784</v>
+        <v>301853.0035786783</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15609235.68401652</v>
+        <v>15609235.68401653</v>
       </c>
     </row>
     <row r="9">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>156.1816162589254</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R11" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="T11" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="V11" t="n">
-        <v>3.263491967783781</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
     </row>
     <row r="12">
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>64.12816206447359</v>
       </c>
       <c r="I12" t="n">
-        <v>29.48016192669786</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.79733752996917</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S12" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>21.33810557658769</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7774890093424744</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,64 +1618,64 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>176.3316001239157</v>
       </c>
-      <c r="G14" t="n">
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="H14" t="n">
+      <c r="Y14" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="I14" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>91.60924906939958</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>35.79733752996917</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S15" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="V15" t="n">
-        <v>17.29809627876345</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1791,10 +1791,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.33810557658769</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7774890093424744</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1849,61 +1849,61 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>176.3316001239159</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="G17" t="n">
+      <c r="U17" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="I17" t="n">
-        <v>176.3316001239157</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.79733752996917</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>199.0454856367754</v>
+        <v>176.3316001239158</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="V18" t="n">
-        <v>17.29809627876345</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
     </row>
     <row r="19">
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>200.1948230289689</v>
@@ -2089,14 +2089,14 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>176.3316001239157</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>23.41347583277421</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,67 +2162,67 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>124.3855037073765</v>
+      </c>
+      <c r="S21" t="n">
+        <v>51.94609641653929</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="D21" t="n">
-        <v>172.0989423795122</v>
-      </c>
-      <c r="E21" t="n">
-        <v>187.4605452976028</v>
-      </c>
-      <c r="F21" t="n">
-        <v>173.9843481253239</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>43.17741037941453</v>
-      </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,61 +2332,61 @@
         <v>200.1948230289689</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="H23" t="n">
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="I23" t="n">
-        <v>156.1816162589254</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>20.14998386499036</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,73 +2396,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>152.9792566566241</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>176.3316001239157</v>
+      </c>
+      <c r="U24" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>100.3110001810774</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>124.3855037073765</v>
-      </c>
-      <c r="S24" t="n">
-        <v>199.0454856367754</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>22.11559458593026</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>176.3316001239159</v>
       </c>
       <c r="W26" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>23.41347583277432</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>51.94609641653918</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>124.3855037073765</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T27" t="n">
+        <v>53.09543380873263</v>
+      </c>
+      <c r="U27" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>176.3316001239159</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="G29" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>176.3316001239159</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>42.01040465145221</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="W30" t="n">
         <v>200.1948230289689</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,46 +2964,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>23.41347583277435</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,58 +3046,58 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>152.9181242911417</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>20.14998386499036</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>156.1816162589256</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="X32" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>35.79733752996917</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>16.14875888657002</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>200.1948230289689</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="W33" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3204,43 +3204,43 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>22.11559458593017</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>20.14998386499036</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>152.9181242911417</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>23.4134758327741</v>
+      </c>
+      <c r="Y35" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="T35" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="U35" t="n">
-        <v>3.263491967783785</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.3316001239157</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>82.91201846534916</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W36" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>22.11559458593017</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>24.50765323923468</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>151.823946884681</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,73 +3581,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>124.3855037073765</v>
+      </c>
+      <c r="S39" t="n">
+        <v>199.0454856367754</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>187.4605452976028</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.053120474247291</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
+      <c r="W39" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>53.09543380873263</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>22.11559458593026</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3742,73 +3742,73 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>176.3316001239157</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="D41" t="n">
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="E41" t="n">
-        <v>3.263491967783785</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>20.14998386499036</v>
-      </c>
-      <c r="R41" t="n">
-        <v>152.9181242911417</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>83.17172383526884</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>140.5342625939466</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
     </row>
     <row r="43">
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>8.659623877332267</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,70 +3979,70 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>176.3316001239157</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>200.1948230289689</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>156.1816162589254</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>20.14998386499036</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>200.1948230289689</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="V45" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="W45" t="n">
+        <v>176.3316001239157</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>200.1948230289689</v>
-      </c>
-      <c r="X45" t="n">
-        <v>200.1948230289689</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>176.3316001239157</v>
       </c>
     </row>
     <row r="46">
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.882134867989792</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7774890093424744</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>13.4559707085979</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>22.11559458593017</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.01558584231751</v>
+        <v>173.7747941846664</v>
       </c>
       <c r="C11" t="n">
-        <v>16.01558584231751</v>
+        <v>173.7747941846664</v>
       </c>
       <c r="D11" t="n">
-        <v>16.01558584231751</v>
+        <v>173.7747941846664</v>
       </c>
       <c r="E11" t="n">
-        <v>16.01558584231751</v>
+        <v>173.7747941846664</v>
       </c>
       <c r="F11" t="n">
-        <v>16.01558584231751</v>
+        <v>173.7747941846664</v>
       </c>
       <c r="G11" t="n">
-        <v>16.01558584231751</v>
+        <v>173.7747941846664</v>
       </c>
       <c r="H11" t="n">
         <v>16.01558584231751</v>
@@ -5047,10 +5047,10 @@
         <v>72.05899007812786</v>
       </c>
       <c r="L11" t="n">
-        <v>199.5520805245964</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M11" t="n">
-        <v>383.8129092844017</v>
+        <v>383.8129092844016</v>
       </c>
       <c r="N11" t="n">
         <v>572.7990561059413</v>
@@ -5065,28 +5065,28 @@
         <v>780.4257730603297</v>
       </c>
       <c r="R11" t="n">
-        <v>625.9630212510957</v>
+        <v>780.4257730603297</v>
       </c>
       <c r="S11" t="n">
-        <v>423.7460282925413</v>
+        <v>578.2087801017752</v>
       </c>
       <c r="T11" t="n">
-        <v>221.5290353339869</v>
+        <v>578.2087801017752</v>
       </c>
       <c r="U11" t="n">
-        <v>19.31204237543244</v>
+        <v>375.9917871432208</v>
       </c>
       <c r="V11" t="n">
-        <v>16.01558584231751</v>
+        <v>375.9917871432208</v>
       </c>
       <c r="W11" t="n">
-        <v>16.01558584231751</v>
+        <v>375.9917871432208</v>
       </c>
       <c r="X11" t="n">
-        <v>16.01558584231751</v>
+        <v>375.9917871432208</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.01558584231751</v>
+        <v>173.7747941846664</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.95245398036502</v>
+        <v>80.79150711956356</v>
       </c>
       <c r="C12" t="n">
-        <v>81.95245398036502</v>
+        <v>80.79150711956356</v>
       </c>
       <c r="D12" t="n">
-        <v>81.95245398036502</v>
+        <v>80.79150711956356</v>
       </c>
       <c r="E12" t="n">
-        <v>81.95245398036502</v>
+        <v>80.79150711956356</v>
       </c>
       <c r="F12" t="n">
-        <v>81.95245398036502</v>
+        <v>80.79150711956356</v>
       </c>
       <c r="G12" t="n">
-        <v>81.95245398036502</v>
+        <v>80.79150711956356</v>
       </c>
       <c r="H12" t="n">
-        <v>81.95245398036502</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I12" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J12" t="n">
         <v>16.01558584231751</v>
@@ -5126,10 +5126,10 @@
         <v>16.01558584231751</v>
       </c>
       <c r="L12" t="n">
-        <v>176.8739046191359</v>
+        <v>88.24928185437003</v>
       </c>
       <c r="M12" t="n">
-        <v>356.160249877725</v>
+        <v>286.4421566530492</v>
       </c>
       <c r="N12" t="n">
         <v>484.6350314517284</v>
@@ -5147,25 +5147,25 @@
         <v>675.1373691791315</v>
       </c>
       <c r="S12" t="n">
-        <v>474.0813230813785</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="T12" t="n">
-        <v>474.0813230813785</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="U12" t="n">
-        <v>474.0813230813785</v>
+        <v>472.9203762205771</v>
       </c>
       <c r="V12" t="n">
-        <v>474.0813230813785</v>
+        <v>472.9203762205771</v>
       </c>
       <c r="W12" t="n">
-        <v>474.0813230813785</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="X12" t="n">
-        <v>474.0813230813785</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="Y12" t="n">
-        <v>271.8643301228241</v>
+        <v>270.7033832620226</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K13" t="n">
-        <v>16.80092827599678</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L13" t="n">
         <v>16.01558584231751</v>
@@ -5223,28 +5223,28 @@
         <v>38.35457027255001</v>
       </c>
       <c r="R13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="S13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="T13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="U13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="V13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C14" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D14" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E14" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F14" t="n">
-        <v>622.6665647179808</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G14" t="n">
-        <v>420.4495717594264</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H14" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I14" t="n">
         <v>16.01558584231751</v>
@@ -5281,10 +5281,10 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K14" t="n">
-        <v>72.05899007812786</v>
+        <v>72.05899007812806</v>
       </c>
       <c r="L14" t="n">
-        <v>199.5520805245965</v>
+        <v>199.5520805245966</v>
       </c>
       <c r="M14" t="n">
         <v>383.8129092844016</v>
@@ -5311,19 +5311,19 @@
         <v>800.7792921158755</v>
       </c>
       <c r="U14" t="n">
-        <v>800.7792921158755</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="V14" t="n">
-        <v>800.7792921158755</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="W14" t="n">
-        <v>800.7792921158755</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="X14" t="n">
-        <v>800.7792921158755</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="Y14" t="n">
-        <v>800.7792921158755</v>
+        <v>218.2325788008719</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.17451264026617</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="C15" t="n">
-        <v>52.17451264026617</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="D15" t="n">
-        <v>52.17451264026617</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="E15" t="n">
-        <v>52.17451264026617</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="F15" t="n">
-        <v>52.17451264026617</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="G15" t="n">
-        <v>52.17451264026617</v>
+        <v>108.550180861913</v>
       </c>
       <c r="H15" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J15" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K15" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L15" t="n">
-        <v>176.8739046191359</v>
+        <v>147.7506776403953</v>
       </c>
       <c r="M15" t="n">
         <v>286.4421566530492</v>
@@ -5384,25 +5384,25 @@
         <v>675.1373691791315</v>
       </c>
       <c r="S15" t="n">
-        <v>474.0813230813785</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="T15" t="n">
-        <v>271.8643301228241</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="U15" t="n">
-        <v>69.64733716426966</v>
+        <v>472.9203762205771</v>
       </c>
       <c r="V15" t="n">
-        <v>52.17451264026617</v>
+        <v>472.9203762205771</v>
       </c>
       <c r="W15" t="n">
-        <v>52.17451264026617</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="X15" t="n">
-        <v>52.17451264026617</v>
+        <v>270.7033832620226</v>
       </c>
       <c r="Y15" t="n">
-        <v>52.17451264026617</v>
+        <v>270.7033832620226</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K16" t="n">
-        <v>16.80092827599678</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L16" t="n">
         <v>16.01558584231751</v>
@@ -5460,28 +5460,28 @@
         <v>38.35457027255001</v>
       </c>
       <c r="R16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="S16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="T16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="U16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="V16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>800.7792921158755</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="C17" t="n">
-        <v>800.7792921158755</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="D17" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E17" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F17" t="n">
-        <v>598.562299157321</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G17" t="n">
-        <v>396.3453061987666</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H17" t="n">
-        <v>194.1283132402122</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I17" t="n">
         <v>16.01558584231751</v>
@@ -5518,49 +5518,49 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K17" t="n">
-        <v>72.05899007812786</v>
+        <v>72.05899007812806</v>
       </c>
       <c r="L17" t="n">
-        <v>199.5520805245964</v>
+        <v>199.5520805245966</v>
       </c>
       <c r="M17" t="n">
-        <v>383.8129092844017</v>
+        <v>383.8129092844018</v>
       </c>
       <c r="N17" t="n">
-        <v>572.7990561059413</v>
+        <v>572.7990561059415</v>
       </c>
       <c r="O17" t="n">
-        <v>723.4688780473041</v>
+        <v>723.4688780473043</v>
       </c>
       <c r="P17" t="n">
-        <v>800.7792921158755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="Q17" t="n">
-        <v>800.7792921158755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="R17" t="n">
-        <v>800.7792921158755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="S17" t="n">
-        <v>800.7792921158755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="T17" t="n">
-        <v>800.7792921158755</v>
+        <v>598.5622991573213</v>
       </c>
       <c r="U17" t="n">
-        <v>800.7792921158755</v>
+        <v>396.3453061987668</v>
       </c>
       <c r="V17" t="n">
-        <v>800.7792921158755</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="W17" t="n">
-        <v>800.7792921158755</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="X17" t="n">
-        <v>800.7792921158755</v>
+        <v>194.1283132402123</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.7792921158755</v>
+        <v>194.1283132402123</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J18" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K18" t="n">
-        <v>82.34666374468725</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L18" t="n">
-        <v>243.2049825215057</v>
+        <v>176.8739046191359</v>
       </c>
       <c r="M18" t="n">
-        <v>347.8378015316987</v>
+        <v>356.1602498777252</v>
       </c>
       <c r="N18" t="n">
-        <v>484.6350314517284</v>
+        <v>484.6350314517287</v>
       </c>
       <c r="O18" t="n">
-        <v>671.0480675097798</v>
+        <v>671.04806750978</v>
       </c>
       <c r="P18" t="n">
-        <v>792.9921536562628</v>
+        <v>792.992153656263</v>
       </c>
       <c r="Q18" t="n">
-        <v>800.7792921158755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="R18" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="S18" t="n">
-        <v>474.0813230813785</v>
+        <v>622.6665647179809</v>
       </c>
       <c r="T18" t="n">
-        <v>271.8643301228241</v>
+        <v>622.6665647179809</v>
       </c>
       <c r="U18" t="n">
-        <v>69.64733716426966</v>
+        <v>622.6665647179809</v>
       </c>
       <c r="V18" t="n">
-        <v>52.17451264026617</v>
+        <v>420.4495717594265</v>
       </c>
       <c r="W18" t="n">
-        <v>52.17451264026617</v>
+        <v>420.4495717594265</v>
       </c>
       <c r="X18" t="n">
-        <v>52.17451264026617</v>
+        <v>218.232578800872</v>
       </c>
       <c r="Y18" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="19">
@@ -5691,10 +5691,10 @@
         <v>38.35457027255001</v>
       </c>
       <c r="P19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R19" t="n">
         <v>16.01558584231751</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>598.562299157321</v>
+        <v>420.4495717594265</v>
       </c>
       <c r="C20" t="n">
-        <v>396.3453061987666</v>
+        <v>218.232578800872</v>
       </c>
       <c r="D20" t="n">
-        <v>396.3453061987666</v>
+        <v>218.232578800872</v>
       </c>
       <c r="E20" t="n">
-        <v>194.1283132402122</v>
+        <v>218.232578800872</v>
       </c>
       <c r="F20" t="n">
-        <v>194.1283132402122</v>
+        <v>218.232578800872</v>
       </c>
       <c r="G20" t="n">
         <v>16.01558584231751</v>
@@ -5755,49 +5755,49 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K20" t="n">
-        <v>72.05899007812806</v>
+        <v>72.05899007812809</v>
       </c>
       <c r="L20" t="n">
         <v>199.5520805245966</v>
       </c>
       <c r="M20" t="n">
-        <v>383.8129092844016</v>
+        <v>383.8129092844019</v>
       </c>
       <c r="N20" t="n">
-        <v>572.7990561059413</v>
+        <v>572.7990561059415</v>
       </c>
       <c r="O20" t="n">
-        <v>723.4688780473041</v>
+        <v>723.4688780473043</v>
       </c>
       <c r="P20" t="n">
-        <v>800.7792921158755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="Q20" t="n">
-        <v>800.7792921158755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="R20" t="n">
-        <v>800.7792921158755</v>
+        <v>646.3165403066417</v>
       </c>
       <c r="S20" t="n">
-        <v>800.7792921158755</v>
+        <v>444.0995473480873</v>
       </c>
       <c r="T20" t="n">
-        <v>800.7792921158755</v>
+        <v>444.0995473480873</v>
       </c>
       <c r="U20" t="n">
-        <v>800.7792921158755</v>
+        <v>444.0995473480873</v>
       </c>
       <c r="V20" t="n">
-        <v>800.7792921158755</v>
+        <v>420.4495717594265</v>
       </c>
       <c r="W20" t="n">
-        <v>800.7792921158755</v>
+        <v>420.4495717594265</v>
       </c>
       <c r="X20" t="n">
-        <v>800.7792921158755</v>
+        <v>420.4495717594265</v>
       </c>
       <c r="Y20" t="n">
-        <v>800.7792921158755</v>
+        <v>420.4495717594265</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>757.165746278083</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C21" t="n">
-        <v>554.9487533195286</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D21" t="n">
-        <v>381.1114377846678</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E21" t="n">
-        <v>191.757351625473</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F21" t="n">
         <v>16.01558584231751</v>
@@ -5840,43 +5840,43 @@
         <v>243.2049825215057</v>
       </c>
       <c r="M21" t="n">
-        <v>347.8378015316987</v>
+        <v>441.3978573201849</v>
       </c>
       <c r="N21" t="n">
-        <v>492.4221699113411</v>
+        <v>586.0151924335588</v>
       </c>
       <c r="O21" t="n">
-        <v>678.8352059693925</v>
+        <v>671.04806750978</v>
       </c>
       <c r="P21" t="n">
-        <v>800.7792921158755</v>
+        <v>792.992153656263</v>
       </c>
       <c r="Q21" t="n">
-        <v>800.7792921158755</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="R21" t="n">
-        <v>800.7792921158755</v>
+        <v>675.1373691791317</v>
       </c>
       <c r="S21" t="n">
-        <v>800.7792921158755</v>
+        <v>622.6665647179809</v>
       </c>
       <c r="T21" t="n">
-        <v>800.7792921158755</v>
+        <v>622.6665647179809</v>
       </c>
       <c r="U21" t="n">
-        <v>757.165746278083</v>
+        <v>420.4495717594265</v>
       </c>
       <c r="V21" t="n">
-        <v>757.165746278083</v>
+        <v>218.232578800872</v>
       </c>
       <c r="W21" t="n">
-        <v>757.165746278083</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X21" t="n">
-        <v>757.165746278083</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y21" t="n">
-        <v>757.165746278083</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="22">
@@ -5928,7 +5928,7 @@
         <v>38.35457027255001</v>
       </c>
       <c r="P22" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q22" t="n">
         <v>16.01558584231751</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>780.4257730603297</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="C23" t="n">
-        <v>780.4257730603297</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="D23" t="n">
-        <v>780.4257730603297</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="E23" t="n">
-        <v>780.4257730603297</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="F23" t="n">
-        <v>578.2087801017752</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G23" t="n">
-        <v>375.9917871432208</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H23" t="n">
-        <v>173.7747941846664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I23" t="n">
         <v>16.01558584231751</v>
@@ -5992,13 +5992,13 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K23" t="n">
-        <v>72.05899007812806</v>
+        <v>72.05899007812786</v>
       </c>
       <c r="L23" t="n">
-        <v>199.5520805245966</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M23" t="n">
-        <v>383.8129092844016</v>
+        <v>383.8129092844017</v>
       </c>
       <c r="N23" t="n">
         <v>572.7990561059413</v>
@@ -6010,31 +6010,31 @@
         <v>800.7792921158755</v>
       </c>
       <c r="Q23" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R23" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S23" t="n">
-        <v>780.4257730603297</v>
+        <v>598.562299157321</v>
       </c>
       <c r="T23" t="n">
-        <v>780.4257730603297</v>
+        <v>598.562299157321</v>
       </c>
       <c r="U23" t="n">
-        <v>780.4257730603297</v>
+        <v>598.562299157321</v>
       </c>
       <c r="V23" t="n">
-        <v>780.4257730603297</v>
+        <v>598.562299157321</v>
       </c>
       <c r="W23" t="n">
-        <v>780.4257730603297</v>
+        <v>598.562299157321</v>
       </c>
       <c r="X23" t="n">
-        <v>780.4257730603297</v>
+        <v>598.562299157321</v>
       </c>
       <c r="Y23" t="n">
-        <v>780.4257730603297</v>
+        <v>396.3453061987666</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>319.5568214080208</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C24" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D24" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E24" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F24" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G24" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H24" t="n">
-        <v>117.3398284494664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I24" t="n">
         <v>16.01558584231751</v>
@@ -6071,19 +6071,19 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K24" t="n">
-        <v>16.01558584231751</v>
+        <v>82.34666374468725</v>
       </c>
       <c r="L24" t="n">
-        <v>176.8739046191359</v>
+        <v>178.0087369619025</v>
       </c>
       <c r="M24" t="n">
-        <v>294.2292951126619</v>
+        <v>376.2016117605817</v>
       </c>
       <c r="N24" t="n">
-        <v>492.4221699113411</v>
+        <v>574.3944865592609</v>
       </c>
       <c r="O24" t="n">
-        <v>678.8352059693925</v>
+        <v>760.8075226173123</v>
       </c>
       <c r="P24" t="n">
         <v>800.7792921158755</v>
@@ -6092,28 +6092,28 @@
         <v>800.7792921158755</v>
       </c>
       <c r="R24" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S24" t="n">
-        <v>474.0813230813785</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T24" t="n">
-        <v>474.0813230813785</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="U24" t="n">
-        <v>474.0813230813785</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="V24" t="n">
-        <v>474.0813230813785</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="W24" t="n">
-        <v>474.0813230813785</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="X24" t="n">
-        <v>474.0813230813785</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y24" t="n">
-        <v>474.0813230813785</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="M25" t="n">
-        <v>784.2480093979</v>
+        <v>21.82328755457456</v>
       </c>
       <c r="N25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="O25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q25" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R25" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="S25" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="T25" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="U25" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="V25" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W25" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y25" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16.01558584231751</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="C26" t="n">
-        <v>16.01558584231751</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="D26" t="n">
-        <v>16.01558584231751</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="E26" t="n">
-        <v>16.01558584231751</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="F26" t="n">
-        <v>16.01558584231751</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="G26" t="n">
         <v>16.01558584231751</v>
@@ -6250,28 +6250,28 @@
         <v>800.7792921158757</v>
       </c>
       <c r="R26" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="S26" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="T26" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="U26" t="n">
-        <v>646.3165403066417</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="V26" t="n">
-        <v>646.3165403066417</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="W26" t="n">
-        <v>444.0995473480873</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="X26" t="n">
-        <v>420.4495717594264</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="Y26" t="n">
-        <v>218.2325788008719</v>
+        <v>622.6665647179808</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>270.7033832620226</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C27" t="n">
-        <v>68.4863903034682</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D27" t="n">
-        <v>68.4863903034682</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E27" t="n">
-        <v>68.4863903034682</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F27" t="n">
-        <v>68.4863903034682</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G27" t="n">
         <v>16.01558584231751</v>
@@ -6308,22 +6308,22 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K27" t="n">
-        <v>82.34666374468725</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2049825215057</v>
+        <v>88.24928185437003</v>
       </c>
       <c r="M27" t="n">
-        <v>347.8378015316987</v>
+        <v>286.4421566530492</v>
       </c>
       <c r="N27" t="n">
-        <v>492.4221699113411</v>
+        <v>484.6350314517284</v>
       </c>
       <c r="O27" t="n">
-        <v>678.8352059693925</v>
+        <v>671.0480675097798</v>
       </c>
       <c r="P27" t="n">
-        <v>800.7792921158755</v>
+        <v>792.9921536562628</v>
       </c>
       <c r="Q27" t="n">
         <v>800.7792921158755</v>
@@ -6332,25 +6332,25 @@
         <v>675.1373691791315</v>
       </c>
       <c r="S27" t="n">
-        <v>675.1373691791315</v>
+        <v>474.0813230813785</v>
       </c>
       <c r="T27" t="n">
-        <v>472.9203762205771</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="U27" t="n">
-        <v>472.9203762205771</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="V27" t="n">
-        <v>472.9203762205771</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W27" t="n">
-        <v>472.9203762205771</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X27" t="n">
-        <v>270.7033832620226</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y27" t="n">
-        <v>270.7033832620226</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="28">
@@ -6420,7 +6420,7 @@
         <v>38.35457027255001</v>
       </c>
       <c r="V28" t="n">
-        <v>16.01558584231751</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W28" t="n">
         <v>16.01558584231751</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>420.4495717594264</v>
+      </c>
+      <c r="C29" t="n">
+        <v>420.4495717594264</v>
+      </c>
+      <c r="D29" t="n">
+        <v>420.4495717594264</v>
+      </c>
+      <c r="E29" t="n">
+        <v>420.4495717594264</v>
+      </c>
+      <c r="F29" t="n">
         <v>218.2325788008719</v>
-      </c>
-      <c r="C29" t="n">
-        <v>218.2325788008719</v>
-      </c>
-      <c r="D29" t="n">
-        <v>16.01558584231751</v>
-      </c>
-      <c r="E29" t="n">
-        <v>16.01558584231751</v>
-      </c>
-      <c r="F29" t="n">
-        <v>16.01558584231751</v>
       </c>
       <c r="G29" t="n">
         <v>16.01558584231751</v>
@@ -6496,19 +6496,19 @@
         <v>800.7792921158757</v>
       </c>
       <c r="U29" t="n">
-        <v>622.6665647179808</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="V29" t="n">
-        <v>622.6665647179808</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="W29" t="n">
-        <v>420.4495717594264</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="X29" t="n">
-        <v>420.4495717594264</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="Y29" t="n">
-        <v>420.4495717594264</v>
+        <v>598.5622991573213</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>396.3453061987666</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C30" t="n">
-        <v>396.3453061987666</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D30" t="n">
-        <v>396.3453061987666</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E30" t="n">
-        <v>396.3453061987666</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F30" t="n">
-        <v>220.6035404156111</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G30" t="n">
-        <v>58.45033801550156</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H30" t="n">
         <v>16.01558584231751</v>
@@ -6545,13 +6545,13 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K30" t="n">
-        <v>82.34666374468725</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2049825215057</v>
+        <v>88.24928185437003</v>
       </c>
       <c r="M30" t="n">
-        <v>356.160249877725</v>
+        <v>286.4421566530492</v>
       </c>
       <c r="N30" t="n">
         <v>484.6350314517284</v>
@@ -6572,22 +6572,22 @@
         <v>800.7792921158755</v>
       </c>
       <c r="T30" t="n">
-        <v>800.7792921158755</v>
+        <v>598.562299157321</v>
       </c>
       <c r="U30" t="n">
-        <v>800.7792921158755</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="V30" t="n">
-        <v>800.7792921158755</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="W30" t="n">
-        <v>598.562299157321</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X30" t="n">
-        <v>598.562299157321</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y30" t="n">
-        <v>396.3453061987666</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G31" t="n">
         <v>16.01558584231751</v>
@@ -6651,22 +6651,22 @@
         <v>38.35457027255001</v>
       </c>
       <c r="T31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="U31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="V31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.2325788008719</v>
+        <v>39.66556143097847</v>
       </c>
       <c r="C32" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D32" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E32" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F32" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G32" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H32" t="n">
         <v>16.01558584231751</v>
@@ -6721,31 +6721,31 @@
         <v>800.7792921158757</v>
       </c>
       <c r="Q32" t="n">
-        <v>780.4257730603299</v>
+        <v>800.7792921158757</v>
       </c>
       <c r="R32" t="n">
-        <v>780.4257730603299</v>
+        <v>646.3165403066417</v>
       </c>
       <c r="S32" t="n">
-        <v>780.4257730603299</v>
+        <v>646.3165403066417</v>
       </c>
       <c r="T32" t="n">
-        <v>622.6665647179808</v>
+        <v>646.3165403066417</v>
       </c>
       <c r="U32" t="n">
-        <v>622.6665647179808</v>
+        <v>444.0995473480873</v>
       </c>
       <c r="V32" t="n">
-        <v>622.6665647179808</v>
+        <v>444.0995473480873</v>
       </c>
       <c r="W32" t="n">
-        <v>420.4495717594264</v>
+        <v>444.0995473480873</v>
       </c>
       <c r="X32" t="n">
-        <v>218.2325788008719</v>
+        <v>444.0995473480873</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.2325788008719</v>
+        <v>241.8825543895329</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J33" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K33" t="n">
-        <v>82.34666374468725</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L33" t="n">
-        <v>243.2049825215057</v>
+        <v>176.8739046191359</v>
       </c>
       <c r="M33" t="n">
-        <v>363.9473883373377</v>
+        <v>375.0667794178151</v>
       </c>
       <c r="N33" t="n">
-        <v>492.4221699113411</v>
+        <v>573.2596542164943</v>
       </c>
       <c r="O33" t="n">
-        <v>678.8352059693925</v>
+        <v>759.6726902745456</v>
       </c>
       <c r="P33" t="n">
         <v>800.7792921158755</v>
@@ -6803,28 +6803,28 @@
         <v>800.7792921158755</v>
       </c>
       <c r="R33" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S33" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T33" t="n">
-        <v>658.8254915159295</v>
+        <v>598.562299157321</v>
       </c>
       <c r="U33" t="n">
-        <v>658.8254915159295</v>
+        <v>598.562299157321</v>
       </c>
       <c r="V33" t="n">
-        <v>456.608498557375</v>
+        <v>420.4495717594264</v>
       </c>
       <c r="W33" t="n">
-        <v>254.3915055988206</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="X33" t="n">
-        <v>52.17451264026617</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="Y33" t="n">
-        <v>52.17451264026617</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H34" t="n">
         <v>16.01558584231751</v>
@@ -6888,22 +6888,22 @@
         <v>38.35457027255001</v>
       </c>
       <c r="T34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="U34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="V34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="35">
@@ -6916,16 +6916,16 @@
         <v>218.2325788008719</v>
       </c>
       <c r="C35" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D35" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E35" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F35" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G35" t="n">
         <v>16.01558584231751</v>
@@ -6943,10 +6943,10 @@
         <v>72.05899007812786</v>
       </c>
       <c r="L35" t="n">
-        <v>199.5520805245965</v>
+        <v>199.5520805245964</v>
       </c>
       <c r="M35" t="n">
-        <v>383.8129092844016</v>
+        <v>383.8129092844017</v>
       </c>
       <c r="N35" t="n">
         <v>572.7990561059413</v>
@@ -6958,31 +6958,31 @@
         <v>800.7792921158755</v>
       </c>
       <c r="Q35" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R35" t="n">
-        <v>625.9630212510957</v>
+        <v>646.3165403066415</v>
       </c>
       <c r="S35" t="n">
-        <v>423.7460282925413</v>
+        <v>646.3165403066415</v>
       </c>
       <c r="T35" t="n">
-        <v>221.5290353339869</v>
+        <v>646.3165403066415</v>
       </c>
       <c r="U35" t="n">
-        <v>218.2325788008719</v>
+        <v>646.3165403066415</v>
       </c>
       <c r="V35" t="n">
-        <v>218.2325788008719</v>
+        <v>646.3165403066415</v>
       </c>
       <c r="W35" t="n">
-        <v>218.2325788008719</v>
+        <v>646.3165403066415</v>
       </c>
       <c r="X35" t="n">
-        <v>218.2325788008719</v>
+        <v>622.6665647179808</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.2325788008719</v>
+        <v>420.4495717594264</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.01558584231751</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="C36" t="n">
-        <v>16.01558584231751</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="D36" t="n">
-        <v>16.01558584231751</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="E36" t="n">
-        <v>16.01558584231751</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="F36" t="n">
-        <v>16.01558584231751</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="G36" t="n">
-        <v>16.01558584231751</v>
+        <v>234.192103798657</v>
       </c>
       <c r="H36" t="n">
-        <v>16.01558584231751</v>
+        <v>99.7650994436803</v>
       </c>
       <c r="I36" t="n">
         <v>16.01558584231751</v>
@@ -7028,13 +7028,13 @@
         <v>347.8378015316987</v>
       </c>
       <c r="N36" t="n">
-        <v>492.4221699113411</v>
+        <v>484.6350314517284</v>
       </c>
       <c r="O36" t="n">
-        <v>678.8352059693925</v>
+        <v>671.0480675097798</v>
       </c>
       <c r="P36" t="n">
-        <v>800.7792921158755</v>
+        <v>792.9921536562628</v>
       </c>
       <c r="Q36" t="n">
         <v>800.7792921158755</v>
@@ -7049,19 +7049,19 @@
         <v>800.7792921158755</v>
       </c>
       <c r="U36" t="n">
-        <v>800.7792921158755</v>
+        <v>598.562299157321</v>
       </c>
       <c r="V36" t="n">
-        <v>800.7792921158755</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="W36" t="n">
-        <v>598.562299157321</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="X36" t="n">
         <v>396.3453061987666</v>
       </c>
       <c r="Y36" t="n">
-        <v>194.1283132402122</v>
+        <v>396.3453061987666</v>
       </c>
     </row>
     <row r="37">
@@ -7086,10 +7086,10 @@
         <v>38.35457027255001</v>
       </c>
       <c r="G37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H37" t="n">
-        <v>38.35457027255001</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I37" t="n">
         <v>16.01558584231751</v>
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>40.77079113447375</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="C38" t="n">
-        <v>40.77079113447375</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="D38" t="n">
-        <v>40.77079113447375</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E38" t="n">
-        <v>40.77079113447375</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F38" t="n">
-        <v>40.77079113447375</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G38" t="n">
-        <v>40.77079113447375</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H38" t="n">
-        <v>40.77079113447375</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I38" t="n">
-        <v>40.77079113447375</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J38" t="n">
         <v>16.01558584231751</v>
       </c>
       <c r="K38" t="n">
-        <v>72.05899007812786</v>
+        <v>72.05899007812809</v>
       </c>
       <c r="L38" t="n">
-        <v>199.5520805245964</v>
+        <v>199.5520805245966</v>
       </c>
       <c r="M38" t="n">
         <v>383.8129092844017</v>
@@ -7198,28 +7198,28 @@
         <v>800.7792921158755</v>
       </c>
       <c r="R38" t="n">
-        <v>647.421770010137</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S38" t="n">
-        <v>445.2047770515826</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T38" t="n">
-        <v>445.2047770515826</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U38" t="n">
-        <v>242.9877840930282</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="V38" t="n">
-        <v>40.77079113447375</v>
+        <v>598.562299157321</v>
       </c>
       <c r="W38" t="n">
-        <v>40.77079113447375</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="X38" t="n">
-        <v>40.77079113447375</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="Y38" t="n">
-        <v>40.77079113447375</v>
+        <v>194.1283132402122</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>407.5866649600667</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C39" t="n">
-        <v>205.3696720015123</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D39" t="n">
-        <v>205.3696720015123</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E39" t="n">
         <v>16.01558584231751</v>
@@ -7262,13 +7262,13 @@
         <v>176.8739046191359</v>
       </c>
       <c r="M39" t="n">
-        <v>375.0667794178151</v>
+        <v>286.4421566530492</v>
       </c>
       <c r="N39" t="n">
-        <v>573.2596542164943</v>
+        <v>484.6350314517284</v>
       </c>
       <c r="O39" t="n">
-        <v>753.0203841576996</v>
+        <v>671.0480675097798</v>
       </c>
       <c r="P39" t="n">
         <v>792.9921536562628</v>
@@ -7277,28 +7277,28 @@
         <v>800.7792921158755</v>
       </c>
       <c r="R39" t="n">
-        <v>799.7155340610802</v>
+        <v>675.1373691791315</v>
       </c>
       <c r="S39" t="n">
-        <v>799.7155340610802</v>
+        <v>474.0813230813785</v>
       </c>
       <c r="T39" t="n">
-        <v>597.4985411025258</v>
+        <v>474.0813230813785</v>
       </c>
       <c r="U39" t="n">
-        <v>597.4985411025258</v>
+        <v>474.0813230813785</v>
       </c>
       <c r="V39" t="n">
-        <v>597.4985411025258</v>
+        <v>271.8643301228241</v>
       </c>
       <c r="W39" t="n">
-        <v>597.4985411025258</v>
+        <v>69.64733716426966</v>
       </c>
       <c r="X39" t="n">
-        <v>597.4985411025258</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y39" t="n">
-        <v>597.4985411025258</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L40" t="n">
-        <v>778.4403076856429</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="M40" t="n">
-        <v>784.2480093979</v>
+        <v>21.82328755457456</v>
       </c>
       <c r="N40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="O40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q40" t="n">
-        <v>800.7792921158755</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="S40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="T40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="U40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="V40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="W40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y40" t="n">
-        <v>800.7792921158755</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>625.9630212510957</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="C41" t="n">
-        <v>423.7460282925413</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="D41" t="n">
-        <v>221.5290353339869</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="E41" t="n">
-        <v>218.2325788008719</v>
+        <v>194.1283132402122</v>
       </c>
       <c r="F41" t="n">
-        <v>218.2325788008719</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G41" t="n">
         <v>16.01558584231751</v>
@@ -7414,49 +7414,49 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K41" t="n">
-        <v>72.05899007812786</v>
+        <v>72.05899007812801</v>
       </c>
       <c r="L41" t="n">
-        <v>199.5520805245964</v>
+        <v>199.5520805245965</v>
       </c>
       <c r="M41" t="n">
-        <v>383.8129092844017</v>
+        <v>383.8129092844019</v>
       </c>
       <c r="N41" t="n">
-        <v>572.7990561059413</v>
+        <v>572.7990561059415</v>
       </c>
       <c r="O41" t="n">
-        <v>723.4688780473041</v>
+        <v>723.4688780473043</v>
       </c>
       <c r="P41" t="n">
         <v>800.7792921158755</v>
       </c>
       <c r="Q41" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R41" t="n">
-        <v>625.9630212510957</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S41" t="n">
-        <v>625.9630212510957</v>
+        <v>598.562299157321</v>
       </c>
       <c r="T41" t="n">
-        <v>625.9630212510957</v>
+        <v>598.562299157321</v>
       </c>
       <c r="U41" t="n">
-        <v>625.9630212510957</v>
+        <v>598.562299157321</v>
       </c>
       <c r="V41" t="n">
-        <v>625.9630212510957</v>
+        <v>598.562299157321</v>
       </c>
       <c r="W41" t="n">
-        <v>625.9630212510957</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="X41" t="n">
-        <v>625.9630212510957</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="Y41" t="n">
-        <v>625.9630212510957</v>
+        <v>194.1283132402122</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>474.0813230813785</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="C42" t="n">
-        <v>474.0813230813785</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="D42" t="n">
-        <v>474.0813230813785</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="E42" t="n">
-        <v>390.0694808235312</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="F42" t="n">
-        <v>214.3277150403757</v>
+        <v>52.17451264026617</v>
       </c>
       <c r="G42" t="n">
         <v>52.17451264026617</v>
@@ -7493,49 +7493,49 @@
         <v>16.01558584231751</v>
       </c>
       <c r="K42" t="n">
-        <v>82.34666374468725</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L42" t="n">
-        <v>243.2049825215057</v>
+        <v>176.8739046191359</v>
       </c>
       <c r="M42" t="n">
-        <v>356.160249877725</v>
+        <v>363.9473883373377</v>
       </c>
       <c r="N42" t="n">
-        <v>484.6350314517284</v>
+        <v>492.4221699113411</v>
       </c>
       <c r="O42" t="n">
-        <v>671.0480675097798</v>
+        <v>678.8352059693925</v>
       </c>
       <c r="P42" t="n">
-        <v>792.9921536562628</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="Q42" t="n">
         <v>800.7792921158755</v>
       </c>
       <c r="R42" t="n">
-        <v>675.1373691791315</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S42" t="n">
-        <v>474.0813230813785</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T42" t="n">
-        <v>474.0813230813785</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U42" t="n">
-        <v>474.0813230813785</v>
+        <v>658.8254915159295</v>
       </c>
       <c r="V42" t="n">
-        <v>474.0813230813785</v>
+        <v>456.608498557375</v>
       </c>
       <c r="W42" t="n">
-        <v>474.0813230813785</v>
+        <v>254.3915055988206</v>
       </c>
       <c r="X42" t="n">
-        <v>474.0813230813785</v>
+        <v>254.3915055988206</v>
       </c>
       <c r="Y42" t="n">
-        <v>474.0813230813785</v>
+        <v>52.17451264026617</v>
       </c>
     </row>
     <row r="43">
@@ -7590,22 +7590,22 @@
         <v>24.76268066790566</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.01558584231751</v>
+        <v>24.76268066790566</v>
       </c>
       <c r="R43" t="n">
-        <v>16.01558584231751</v>
+        <v>24.76268066790566</v>
       </c>
       <c r="S43" t="n">
-        <v>16.01558584231751</v>
+        <v>24.76268066790566</v>
       </c>
       <c r="T43" t="n">
-        <v>16.01558584231751</v>
+        <v>24.76268066790566</v>
       </c>
       <c r="U43" t="n">
-        <v>16.01558584231751</v>
+        <v>24.76268066790566</v>
       </c>
       <c r="V43" t="n">
-        <v>16.01558584231751</v>
+        <v>24.76268066790566</v>
       </c>
       <c r="W43" t="n">
         <v>16.01558584231751</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>578.2087801017752</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="C44" t="n">
-        <v>578.2087801017752</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="D44" t="n">
-        <v>375.9917871432208</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="E44" t="n">
-        <v>375.9917871432208</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="F44" t="n">
-        <v>375.9917871432208</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G44" t="n">
-        <v>173.7747941846664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H44" t="n">
-        <v>173.7747941846664</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I44" t="n">
         <v>16.01558584231751</v>
@@ -7669,31 +7669,31 @@
         <v>800.7792921158755</v>
       </c>
       <c r="Q44" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="R44" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="S44" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="T44" t="n">
-        <v>780.4257730603297</v>
+        <v>800.7792921158755</v>
       </c>
       <c r="U44" t="n">
-        <v>780.4257730603297</v>
+        <v>598.562299157321</v>
       </c>
       <c r="V44" t="n">
-        <v>780.4257730603297</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="W44" t="n">
-        <v>780.4257730603297</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="X44" t="n">
-        <v>578.2087801017752</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="Y44" t="n">
-        <v>578.2087801017752</v>
+        <v>396.3453061987666</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>82.34666374468725</v>
       </c>
       <c r="L45" t="n">
-        <v>243.2049825215057</v>
+        <v>147.7506776403953</v>
       </c>
       <c r="M45" t="n">
-        <v>363.9473883373377</v>
+        <v>345.9435524390744</v>
       </c>
       <c r="N45" t="n">
-        <v>492.4221699113411</v>
+        <v>544.1364272377537</v>
       </c>
       <c r="O45" t="n">
-        <v>678.8352059693925</v>
+        <v>730.549463295805</v>
       </c>
       <c r="P45" t="n">
-        <v>800.7792921158755</v>
+        <v>792.9921536562628</v>
       </c>
       <c r="Q45" t="n">
         <v>800.7792921158755</v>
@@ -7760,16 +7760,16 @@
         <v>800.7792921158755</v>
       </c>
       <c r="U45" t="n">
-        <v>800.7792921158755</v>
+        <v>598.562299157321</v>
       </c>
       <c r="V45" t="n">
-        <v>598.562299157321</v>
+        <v>396.3453061987666</v>
       </c>
       <c r="W45" t="n">
-        <v>396.3453061987666</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="X45" t="n">
-        <v>194.1283132402122</v>
+        <v>218.2325788008719</v>
       </c>
       <c r="Y45" t="n">
         <v>16.01558584231751</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="C46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="D46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="E46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="F46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="G46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="H46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="I46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="J46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="K46" t="n">
-        <v>16.80092827599678</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="L46" t="n">
         <v>16.01558584231751</v>
@@ -7821,37 +7821,37 @@
         <v>38.35457027255001</v>
       </c>
       <c r="O46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="P46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="R46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="S46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="T46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="U46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="V46" t="n">
-        <v>24.76268066790566</v>
+        <v>38.35457027255001</v>
       </c>
       <c r="W46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="X46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.76268066790566</v>
+        <v>16.01558584231751</v>
       </c>
     </row>
   </sheetData>
@@ -8774,13 +8774,13 @@
         <v>1.759872832997985</v>
       </c>
       <c r="L12" t="n">
-        <v>96.41848977889939</v>
+        <v>6.898668804388379</v>
       </c>
       <c r="M12" t="n">
-        <v>75.40760227110709</v>
+        <v>94.50510685705666</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>70.42231638856134</v>
       </c>
       <c r="O12" t="n">
         <v>102.4042030119497</v>
@@ -9008,13 +9008,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>1.759872832997985</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>96.41848977889939</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>4.985285882545696</v>
+        <v>34.40268687117259</v>
       </c>
       <c r="N15" t="n">
         <v>70.42231638856134</v>
@@ -9245,16 +9245,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L18" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>75.40760227110732</v>
       </c>
       <c r="N18" t="n">
-        <v>8.406513480834661</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>102.4042030119497</v>
@@ -9488,19 +9488,19 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>94.50510685705675</v>
       </c>
       <c r="N21" t="n">
-        <v>16.2723099046859</v>
+        <v>16.30560963572773</v>
       </c>
       <c r="O21" t="n">
-        <v>102.4042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>82.80031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.7542983874695</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>11.83563415094341</v>
@@ -9719,13 +9719,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>1.759872832997985</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>96.41848977889939</v>
+        <v>30.56369628435078</v>
       </c>
       <c r="M24" t="n">
-        <v>12.85108230639693</v>
+        <v>94.50510685705666</v>
       </c>
       <c r="N24" t="n">
         <v>70.42231638856134</v>
@@ -9734,7 +9734,7 @@
         <v>102.4042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>82.80031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>46.7542983874695</v>
@@ -9956,16 +9956,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L27" t="n">
-        <v>96.41848977889939</v>
+        <v>6.898668804388379</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>94.50510685705666</v>
       </c>
       <c r="N27" t="n">
-        <v>16.2723099046859</v>
+        <v>70.42231638856134</v>
       </c>
       <c r="O27" t="n">
         <v>102.4042030119497</v>
@@ -9974,7 +9974,7 @@
         <v>82.80031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.7542983874695</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>11.83563415094341</v>
@@ -10193,16 +10193,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L30" t="n">
-        <v>96.41848977889939</v>
+        <v>6.898668804388379</v>
       </c>
       <c r="M30" t="n">
-        <v>8.406513480834619</v>
+        <v>94.50510685705666</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>70.42231638856134</v>
       </c>
       <c r="O30" t="n">
         <v>102.4042030119497</v>
@@ -10430,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L33" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M33" t="n">
-        <v>16.27230990468586</v>
+        <v>94.50510685705669</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>70.42231638856137</v>
       </c>
       <c r="O33" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P33" t="n">
-        <v>82.80031984638366</v>
+        <v>1.146295295723959</v>
       </c>
       <c r="Q33" t="n">
         <v>46.7542983874695</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>16.2723099046859</v>
+        <v>8.406513480834661</v>
       </c>
       <c r="O36" t="n">
         <v>102.4042030119497</v>
@@ -10685,7 +10685,7 @@
         <v>82.80031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.7542983874695</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>11.83563415094341</v>
@@ -10910,16 +10910,16 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M39" t="n">
-        <v>94.50510685705669</v>
+        <v>4.985285882545696</v>
       </c>
       <c r="N39" t="n">
-        <v>70.42231638856137</v>
+        <v>70.42231638856134</v>
       </c>
       <c r="O39" t="n">
-        <v>95.68470188382238</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11077,7 +11077,7 @@
         <v>99.00804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>83.66766412458549</v>
+        <v>83.66766412458531</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,13 +11141,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>68.76096162327045</v>
+        <v>1.759872832997985</v>
       </c>
       <c r="L42" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M42" t="n">
-        <v>8.406513480834619</v>
+        <v>83.27339869495833</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>82.80031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.62009481132077</v>
+        <v>46.7542983874695</v>
       </c>
       <c r="R42" t="n">
         <v>11.83563415094341</v>
@@ -11381,22 +11381,22 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>96.41848977889939</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>16.27230990468586</v>
+        <v>94.50510685705669</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>70.42231638856137</v>
       </c>
       <c r="O45" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>82.80031984638366</v>
+        <v>22.6978998604996</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.7542983874695</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>11.83563415094341</v>
@@ -23275,7 +23275,7 @@
         <v>421.2772936997861</v>
       </c>
       <c r="H11" t="n">
-        <v>340.4091559821451</v>
+        <v>184.2275397232197</v>
       </c>
       <c r="I11" t="n">
         <v>218.4609991818855</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S11" t="n">
         <v>14.48908307771813</v>
       </c>
       <c r="T11" t="n">
-        <v>15.19473356729725</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U11" t="n">
         <v>48.52174827781303</v>
       </c>
       <c r="V11" t="n">
-        <v>310.0409500332393</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W11" t="n">
         <v>325.3917254792934</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="12">
@@ -23354,13 +23354,13 @@
         <v>160.5316703761085</v>
       </c>
       <c r="H12" t="n">
-        <v>133.0827343114269</v>
+        <v>68.95457224695336</v>
       </c>
       <c r="I12" t="n">
-        <v>70.83083825437953</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T12" t="n">
         <v>228.1472729888334</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W12" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X12" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.70144338462447</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="13">
@@ -23442,10 +23442,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K13" t="n">
-        <v>19.05178990139153</v>
+        <v>40.38989547797922</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.7774890093424744</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>117.7104335796887</v>
       </c>
       <c r="R13" t="n">
-        <v>202.8351353702983</v>
+        <v>180.7195407843681</v>
       </c>
       <c r="S13" t="n">
         <v>236.6308406326193</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>164.3615045680943</v>
       </c>
       <c r="C14" t="n">
         <v>333.5971194742085</v>
@@ -23506,16 +23506,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F14" t="n">
-        <v>222.8148174494533</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>221.0824706708172</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H14" t="n">
-        <v>140.2143329531762</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I14" t="n">
-        <v>18.26617615291661</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J14" t="n">
         <v>24.50765323923468</v>
@@ -23551,7 +23551,7 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7165713067819</v>
+        <v>72.3849711828662</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23560,10 +23560,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>148.622056274544</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="15">
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>133.0827343114269</v>
+        <v>41.47348524202737</v>
       </c>
       <c r="I15" t="n">
         <v>100.3110001810774</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T15" t="n">
-        <v>27.95244995986451</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U15" t="n">
         <v>49.42293565463203</v>
       </c>
       <c r="V15" t="n">
-        <v>232.0018289014089</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23679,10 +23679,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K16" t="n">
-        <v>19.05178990139153</v>
+        <v>40.38989547797922</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.7774890093424744</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>117.7104335796887</v>
       </c>
       <c r="R16" t="n">
-        <v>202.8351353702983</v>
+        <v>180.7195407843681</v>
       </c>
       <c r="S16" t="n">
         <v>236.6308406326193</v>
@@ -23737,22 +23737,22 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>142.8001555193318</v>
       </c>
       <c r="E17" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>198.9515945444002</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>221.0824706708172</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H17" t="n">
-        <v>140.2143329531762</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I17" t="n">
-        <v>42.12939905796978</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J17" t="n">
         <v>24.50765323923468</v>
@@ -23785,13 +23785,13 @@
         <v>214.683906106687</v>
       </c>
       <c r="T17" t="n">
-        <v>215.3895565962661</v>
+        <v>15.19473356729719</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781297</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720542</v>
       </c>
       <c r="W17" t="n">
         <v>325.3917254792934</v>
@@ -23834,7 +23834,7 @@
         <v>100.3110001810774</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>22.7138855128596</v>
       </c>
       <c r="T18" t="n">
-        <v>27.95244995986451</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U18" t="n">
-        <v>49.42293565463203</v>
+        <v>249.6177586836009</v>
       </c>
       <c r="V18" t="n">
-        <v>232.0018289014089</v>
+        <v>49.10510215120345</v>
       </c>
       <c r="W18" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X18" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199405</v>
       </c>
       <c r="Y18" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462441</v>
       </c>
     </row>
     <row r="19">
@@ -23931,13 +23931,13 @@
         <v>13.4559707085979</v>
       </c>
       <c r="P19" t="n">
-        <v>18.72901766192809</v>
+        <v>40.84461224785827</v>
       </c>
       <c r="Q19" t="n">
         <v>117.7104335796887</v>
       </c>
       <c r="R19" t="n">
-        <v>202.8351353702983</v>
+        <v>180.7195407843681</v>
       </c>
       <c r="S19" t="n">
         <v>236.6308406326193</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>164.3615045680943</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
-        <v>133.4022964452396</v>
+        <v>133.4022964452395</v>
       </c>
       <c r="D20" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>159.7637319073185</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>244.9456935758704</v>
+        <v>221.0824706708171</v>
       </c>
       <c r="H20" t="n">
         <v>340.4091559821451</v>
@@ -24016,10 +24016,10 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R20" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>214.683906106687</v>
+        <v>14.48908307771808</v>
       </c>
       <c r="T20" t="n">
         <v>215.3895565962661</v>
@@ -24028,7 +24028,7 @@
         <v>248.7165713067819</v>
       </c>
       <c r="V20" t="n">
-        <v>313.3044420010231</v>
+        <v>289.8909661682489</v>
       </c>
       <c r="W20" t="n">
         <v>325.3917254792934</v>
@@ -24050,16 +24050,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C21" t="n">
-        <v>3.647604586270518</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
         <v>160.5316703761085</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>124.3855037073765</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>199.0454856367754</v>
+        <v>147.0993892202361</v>
       </c>
       <c r="T21" t="n">
         <v>228.1472729888334</v>
       </c>
       <c r="U21" t="n">
-        <v>206.4403483041864</v>
+        <v>49.42293565463197</v>
       </c>
       <c r="V21" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120345</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396218</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
@@ -24168,10 +24168,10 @@
         <v>13.4559707085979</v>
       </c>
       <c r="P22" t="n">
-        <v>18.72901766192809</v>
+        <v>40.84461224785827</v>
       </c>
       <c r="Q22" t="n">
-        <v>117.7104335796887</v>
+        <v>95.59483899375851</v>
       </c>
       <c r="R22" t="n">
         <v>202.8351353702983</v>
@@ -24211,7 +24211,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
-        <v>319.1317556432476</v>
+        <v>142.8001555193319</v>
       </c>
       <c r="E23" t="n">
         <v>359.9585549362873</v>
@@ -24220,13 +24220,13 @@
         <v>198.9515945444002</v>
       </c>
       <c r="G23" t="n">
-        <v>221.0824706708172</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H23" t="n">
-        <v>140.2143329531762</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I23" t="n">
-        <v>62.27938292296011</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J23" t="n">
         <v>24.50765323923468</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R23" t="n">
         <v>152.9181242911417</v>
       </c>
       <c r="S23" t="n">
-        <v>214.683906106687</v>
+        <v>14.48908307771813</v>
       </c>
       <c r="T23" t="n">
         <v>215.3895565962661</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35.03350072441035</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>3.647604586270518</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
         <v>172.0989423795122</v>
@@ -24305,7 +24305,7 @@
         <v>133.0827343114269</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>100.3110001810774</v>
       </c>
       <c r="J24" t="n">
         <v>35.79733752996917</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T24" t="n">
-        <v>228.1472729888334</v>
+        <v>51.81567286491767</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X24" t="n">
-        <v>230.033063710963</v>
+        <v>29.83824068199411</v>
       </c>
       <c r="Y24" t="n">
         <v>242.8962664135933</v>
@@ -24411,7 +24411,7 @@
         <v>117.7104335796887</v>
       </c>
       <c r="R25" t="n">
-        <v>202.8351353702983</v>
+        <v>180.7195407843681</v>
       </c>
       <c r="S25" t="n">
         <v>236.6308406326193</v>
@@ -24429,7 +24429,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X25" t="n">
-        <v>195.6260267525728</v>
+        <v>217.7416213385031</v>
       </c>
       <c r="Y25" t="n">
         <v>215.5502738121359</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.3615045680943</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>118.9369326142788</v>
       </c>
       <c r="E26" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F26" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G26" t="n">
-        <v>421.2772936997861</v>
+        <v>221.0824706708172</v>
       </c>
       <c r="H26" t="n">
         <v>340.4091559821451</v>
@@ -24490,7 +24490,7 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S26" t="n">
         <v>214.683906106687</v>
@@ -24502,16 +24502,16 @@
         <v>248.7165713067819</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>136.9728418771072</v>
       </c>
       <c r="W26" t="n">
-        <v>125.1969024503245</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X26" t="n">
-        <v>325.4034034707386</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>177.7341533662133</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>3.647604586270518</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
         <v>172.0989423795122</v>
@@ -24536,7 +24536,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>108.5855739595693</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H27" t="n">
         <v>133.0827343114269</v>
@@ -24572,22 +24572,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>27.95244995986451</v>
+        <v>175.0518391801008</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
-        <v>29.83824068199411</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
         <v>242.8962664135933</v>
@@ -24660,10 +24660,10 @@
         <v>291.1974793176597</v>
       </c>
       <c r="V28" t="n">
-        <v>215.2459554903416</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W28" t="n">
-        <v>294.4857951463376</v>
+        <v>272.3702005604075</v>
       </c>
       <c r="X28" t="n">
         <v>217.7416213385031</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>164.3615045680943</v>
+        <v>188.2247274731472</v>
       </c>
       <c r="C29" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>118.9369326142788</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G29" t="n">
-        <v>421.2772936997861</v>
+        <v>221.0824706708172</v>
       </c>
       <c r="H29" t="n">
         <v>340.4091559821451</v>
@@ -24736,19 +24736,19 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U29" t="n">
-        <v>72.38497118286597</v>
+        <v>248.7165713067819</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W29" t="n">
-        <v>125.1969024503245</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="30">
@@ -24770,13 +24770,13 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H30" t="n">
-        <v>91.07232965997474</v>
+        <v>133.0827343114269</v>
       </c>
       <c r="I30" t="n">
         <v>100.3110001810774</v>
@@ -24812,13 +24812,13 @@
         <v>199.0454856367754</v>
       </c>
       <c r="T30" t="n">
-        <v>228.1472729888334</v>
+        <v>27.95244995986451</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>72.96832505625667</v>
       </c>
       <c r="W30" t="n">
         <v>83.05443373396224</v>
@@ -24827,7 +24827,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>42.70144338462447</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>146.7136078779125</v>
+        <v>168.8292024638427</v>
       </c>
       <c r="H31" t="n">
         <v>163.9752151566217</v>
@@ -24891,7 +24891,7 @@
         <v>236.6308406326193</v>
       </c>
       <c r="T31" t="n">
-        <v>216.3554192360613</v>
+        <v>194.2398246501311</v>
       </c>
       <c r="U31" t="n">
         <v>291.1974793176597</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>364.5563275970632</v>
+        <v>164.3615045680943</v>
       </c>
       <c r="C32" t="n">
-        <v>333.5971194742085</v>
+        <v>310.1836436414341</v>
       </c>
       <c r="D32" t="n">
         <v>319.1317556432476</v>
@@ -24934,7 +24934,7 @@
         <v>421.2772936997861</v>
       </c>
       <c r="H32" t="n">
-        <v>140.2143329531762</v>
+        <v>340.4091559821451</v>
       </c>
       <c r="I32" t="n">
         <v>218.4609991818855</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R32" t="n">
-        <v>152.9181242911417</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>214.683906106687</v>
       </c>
       <c r="T32" t="n">
-        <v>59.20794033734052</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781303</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>125.1969024503245</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>148.622056274544</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="33">
@@ -25019,7 +25019,7 @@
         <v>100.3110001810774</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>35.79733752996917</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S33" t="n">
         <v>199.0454856367754</v>
       </c>
       <c r="T33" t="n">
-        <v>211.9985141022634</v>
+        <v>27.95244995986451</v>
       </c>
       <c r="U33" t="n">
         <v>249.6177586836009</v>
       </c>
       <c r="V33" t="n">
-        <v>49.10510215120351</v>
+        <v>72.96832505625667</v>
       </c>
       <c r="W33" t="n">
         <v>83.05443373396224</v>
       </c>
       <c r="X33" t="n">
-        <v>29.83824068199411</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462447</v>
       </c>
     </row>
     <row r="34">
@@ -25092,7 +25092,7 @@
         <v>168.8292024638427</v>
       </c>
       <c r="H34" t="n">
-        <v>141.8596205706915</v>
+        <v>163.9752151566217</v>
       </c>
       <c r="I34" t="n">
         <v>155.5506962241489</v>
@@ -25128,7 +25128,7 @@
         <v>236.6308406326193</v>
       </c>
       <c r="T34" t="n">
-        <v>216.3554192360613</v>
+        <v>194.2398246501311</v>
       </c>
       <c r="U34" t="n">
         <v>291.1974793176597</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.5563275970632</v>
+        <v>164.3615045680943</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>133.4022964452396</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
@@ -25168,7 +25168,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>221.0824706708172</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H35" t="n">
         <v>340.4091559821451</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>14.48908307771813</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T35" t="n">
-        <v>15.19473356729725</v>
+        <v>215.3895565962661</v>
       </c>
       <c r="U35" t="n">
-        <v>245.4530793389981</v>
+        <v>248.7165713067819</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25219,10 +25219,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>348.8168793035129</v>
+        <v>325.4034034707388</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>11.68115725711874</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
         <v>203.8424276152394</v>
@@ -25247,13 +25247,13 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.5316703761085</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>133.0827343114269</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>100.3110001810774</v>
+        <v>17.39898171572823</v>
       </c>
       <c r="J36" t="n">
         <v>35.79733752996917</v>
@@ -25289,19 +25289,19 @@
         <v>228.1472729888334</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W36" t="n">
-        <v>83.05443373396224</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
-        <v>29.83824068199411</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>42.70144338462447</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25326,13 +25326,13 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>168.8292024638427</v>
+        <v>146.7136078779125</v>
       </c>
       <c r="H37" t="n">
         <v>163.9752151566217</v>
       </c>
       <c r="I37" t="n">
-        <v>133.4351016382188</v>
+        <v>155.5506962241489</v>
       </c>
       <c r="J37" t="n">
         <v>103.6341439005505</v>
@@ -25396,7 +25396,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1317556432476</v>
+        <v>142.8001555193319</v>
       </c>
       <c r="E38" t="n">
         <v>359.9585549362873</v>
@@ -25414,7 +25414,7 @@
         <v>218.4609991818855</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>24.50765323923468</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>20.14998386499036</v>
       </c>
       <c r="R38" t="n">
-        <v>1.094177406460602</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S38" t="n">
-        <v>14.48908307771813</v>
+        <v>214.683906106687</v>
       </c>
       <c r="T38" t="n">
         <v>215.3895565962661</v>
       </c>
       <c r="U38" t="n">
-        <v>48.52174827781303</v>
+        <v>248.7165713067819</v>
       </c>
       <c r="V38" t="n">
         <v>113.1096189720542</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>125.1969024503245</v>
       </c>
       <c r="X38" t="n">
-        <v>348.8168793035129</v>
+        <v>148.622056274544</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>3.647604586270518</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>123.3323832331292</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>199.0454856367754</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>27.95244995986451</v>
+        <v>228.1472729888334</v>
       </c>
       <c r="U39" t="n">
         <v>249.6177586836009</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X39" t="n">
-        <v>230.033063710963</v>
+        <v>176.9376299022304</v>
       </c>
       <c r="Y39" t="n">
         <v>242.8962664135933</v>
@@ -25557,7 +25557,7 @@
         <v>141.3987433365328</v>
       </c>
       <c r="E40" t="n">
-        <v>114.3161298179835</v>
+        <v>136.4317244039137</v>
       </c>
       <c r="F40" t="n">
         <v>131.7685403657761</v>
@@ -25596,7 +25596,7 @@
         <v>117.7104335796887</v>
       </c>
       <c r="R40" t="n">
-        <v>202.8351353702983</v>
+        <v>180.7195407843681</v>
       </c>
       <c r="S40" t="n">
         <v>236.6308406326193</v>
@@ -25630,19 +25630,19 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>133.4022964452396</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>118.9369326142788</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
-        <v>356.6950629685035</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>222.8148174494533</v>
       </c>
       <c r="G41" t="n">
-        <v>221.0824706708172</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H41" t="n">
         <v>340.4091559821451</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>152.9181242911417</v>
       </c>
       <c r="S41" t="n">
-        <v>214.683906106687</v>
+        <v>14.48908307771813</v>
       </c>
       <c r="T41" t="n">
         <v>215.3895565962661</v>
@@ -25690,13 +25690,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>325.3917254792934</v>
+        <v>125.1969024503245</v>
       </c>
       <c r="X41" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>177.7341533662133</v>
       </c>
     </row>
     <row r="42">
@@ -25715,13 +25715,13 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
-        <v>104.288821462334</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>160.5316703761085</v>
       </c>
       <c r="H42" t="n">
         <v>133.0827343114269</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>124.3855037073765</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>199.0454856367754</v>
       </c>
       <c r="T42" t="n">
         <v>228.1472729888334</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6177586836009</v>
+        <v>109.0834960896543</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>49.10510215120351</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>83.05443373396224</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>242.8962664135933</v>
+        <v>42.70144338462447</v>
       </c>
     </row>
     <row r="43">
@@ -25830,7 +25830,7 @@
         <v>40.84461224785827</v>
       </c>
       <c r="Q43" t="n">
-        <v>109.0508097023564</v>
+        <v>117.7104335796887</v>
       </c>
       <c r="R43" t="n">
         <v>202.8351353702983</v>
@@ -25848,7 +25848,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W43" t="n">
-        <v>294.4857951463376</v>
+        <v>285.8261712690054</v>
       </c>
       <c r="X43" t="n">
         <v>217.7416213385031</v>
@@ -25867,25 +25867,25 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
-        <v>333.5971194742085</v>
+        <v>157.2655193502927</v>
       </c>
       <c r="D44" t="n">
-        <v>118.9369326142788</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>198.9515945444002</v>
       </c>
       <c r="G44" t="n">
-        <v>221.0824706708172</v>
+        <v>421.2772936997861</v>
       </c>
       <c r="H44" t="n">
         <v>340.4091559821451</v>
       </c>
       <c r="I44" t="n">
-        <v>62.27938292296011</v>
+        <v>218.4609991818855</v>
       </c>
       <c r="J44" t="n">
         <v>24.50765323923468</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>20.14998386499036</v>
       </c>
       <c r="R44" t="n">
         <v>152.9181242911417</v>
@@ -25921,16 +25921,16 @@
         <v>215.3895565962661</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7165713067819</v>
+        <v>48.52174827781303</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>113.1096189720542</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X44" t="n">
-        <v>148.622056274544</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
         <v>377.9289763951821</v>
@@ -26000,19 +26000,19 @@
         <v>228.1472729888334</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6177586836009</v>
+        <v>49.42293565463203</v>
       </c>
       <c r="V45" t="n">
         <v>49.10510215120351</v>
       </c>
       <c r="W45" t="n">
-        <v>83.05443373396224</v>
+        <v>106.9176566390154</v>
       </c>
       <c r="X45" t="n">
-        <v>29.83824068199411</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
-        <v>66.56466628967763</v>
+        <v>42.70144338462447</v>
       </c>
     </row>
     <row r="46">
@@ -26049,10 +26049,10 @@
         <v>103.6341439005505</v>
       </c>
       <c r="K46" t="n">
-        <v>32.50776060998943</v>
+        <v>40.38989547797922</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.7774890093424744</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -26061,7 +26061,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>13.4559707085979</v>
       </c>
       <c r="P46" t="n">
         <v>40.84461224785827</v>
@@ -26085,7 +26085,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W46" t="n">
-        <v>294.4857951463376</v>
+        <v>272.3702005604075</v>
       </c>
       <c r="X46" t="n">
         <v>217.7416213385031</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>439220.3287172913</v>
+        <v>439220.3287172914</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>439220.3287172913</v>
+        <v>439220.3287172914</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>439220.3287172913</v>
+        <v>439220.3287172914</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>439220.3287172913</v>
+        <v>439220.3287172914</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>439220.3287172913</v>
+        <v>439220.3287172914</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>439220.3287172914</v>
+        <v>439220.3287172915</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>439220.3287172914</v>
+        <v>439220.3287172913</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>713195.7535049171</v>
+      </c>
+      <c r="C2" t="n">
         <v>713195.753504917</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>713195.7535049171</v>
       </c>
-      <c r="D2" t="n">
-        <v>713195.753504917</v>
-      </c>
       <c r="E2" t="n">
-        <v>324725.2816894843</v>
+        <v>324725.2816894842</v>
       </c>
       <c r="F2" t="n">
-        <v>324725.2816894843</v>
+        <v>324725.2816894841</v>
       </c>
       <c r="G2" t="n">
         <v>324725.2816894842</v>
       </c>
       <c r="H2" t="n">
-        <v>324725.281689484</v>
+        <v>324725.2816894841</v>
       </c>
       <c r="I2" t="n">
-        <v>324725.2816894842</v>
+        <v>324725.2816894841</v>
       </c>
       <c r="J2" t="n">
         <v>324725.2816894841</v>
@@ -26343,19 +26343,19 @@
         <v>324725.2816894841</v>
       </c>
       <c r="L2" t="n">
-        <v>324725.2816894841</v>
+        <v>324725.2816894843</v>
       </c>
       <c r="M2" t="n">
         <v>324725.2816894841</v>
       </c>
       <c r="N2" t="n">
+        <v>324725.2816894842</v>
+      </c>
+      <c r="O2" t="n">
         <v>324725.2816894841</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>324725.2816894842</v>
-      </c>
-      <c r="P2" t="n">
-        <v>324725.2816894841</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49889.35067811119</v>
+        <v>49889.35067811117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>496434.2661094386</v>
       </c>
       <c r="E4" t="n">
+        <v>6399.161173421332</v>
+      </c>
+      <c r="F4" t="n">
         <v>6399.161173421333</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6399.161173421332</v>
       </c>
       <c r="G4" t="n">
         <v>6399.161173421333</v>
       </c>
       <c r="H4" t="n">
-        <v>6399.161173421332</v>
+        <v>6399.161173421333</v>
       </c>
       <c r="I4" t="n">
         <v>6399.161173421332</v>
@@ -26444,19 +26444,19 @@
         <v>6399.161173421332</v>
       </c>
       <c r="K4" t="n">
-        <v>6399.161173421334</v>
+        <v>6399.161173421332</v>
       </c>
       <c r="L4" t="n">
         <v>6399.161173421333</v>
       </c>
       <c r="M4" t="n">
+        <v>6399.161173421333</v>
+      </c>
+      <c r="N4" t="n">
         <v>6399.161173421332</v>
       </c>
-      <c r="N4" t="n">
-        <v>6399.161173421333</v>
-      </c>
       <c r="O4" t="n">
-        <v>6399.161173421334</v>
+        <v>6399.161173421331</v>
       </c>
       <c r="P4" t="n">
         <v>6399.161173421333</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183133.8873954784</v>
+        <v>183086.9428545457</v>
       </c>
       <c r="C6" t="n">
-        <v>183133.8873954786</v>
+        <v>183086.9428545456</v>
       </c>
       <c r="D6" t="n">
-        <v>183133.8873954784</v>
+        <v>183086.9428545457</v>
       </c>
       <c r="E6" t="n">
-        <v>-228392.4560187387</v>
+        <v>-241388.4162868526</v>
       </c>
       <c r="F6" t="n">
-        <v>293611.8456445871</v>
+        <v>280615.885376473</v>
       </c>
       <c r="G6" t="n">
-        <v>293611.845644587</v>
+        <v>280615.8853764731</v>
       </c>
       <c r="H6" t="n">
-        <v>293611.8456445868</v>
+        <v>280615.885376473</v>
       </c>
       <c r="I6" t="n">
-        <v>293611.845644587</v>
+        <v>280615.8853764731</v>
       </c>
       <c r="J6" t="n">
-        <v>293611.8456445869</v>
+        <v>280615.8853764731</v>
       </c>
       <c r="K6" t="n">
-        <v>293611.845644587</v>
+        <v>280615.8853764731</v>
       </c>
       <c r="L6" t="n">
-        <v>293611.8456445869</v>
+        <v>280615.8853764732</v>
       </c>
       <c r="M6" t="n">
-        <v>243722.4949664758</v>
+        <v>230726.5346983618</v>
       </c>
       <c r="N6" t="n">
-        <v>293611.845644587</v>
+        <v>280615.8853764731</v>
       </c>
       <c r="O6" t="n">
-        <v>293611.845644587</v>
+        <v>280615.8853764731</v>
       </c>
       <c r="P6" t="n">
-        <v>293611.845644587</v>
+        <v>280615.8853764731</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>200.194823028969</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>162.4831502796146</v>
+        <v>72.96332930510356</v>
       </c>
       <c r="M12" t="n">
-        <v>181.0973184430193</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N12" t="n">
-        <v>129.7725066404075</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="O12" t="n">
         <v>188.2959960182337</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L15" t="n">
-        <v>162.4831502796146</v>
+        <v>66.06466050071518</v>
       </c>
       <c r="M15" t="n">
-        <v>110.6750020544579</v>
+        <v>140.0924030430848</v>
       </c>
       <c r="N15" t="n">
         <v>200.1948230289689</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>67.00108879027246</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M18" t="n">
-        <v>105.6897161719122</v>
+        <v>181.0973184430195</v>
       </c>
       <c r="N18" t="n">
-        <v>138.1790201212422</v>
+        <v>129.7725066404075</v>
       </c>
       <c r="O18" t="n">
         <v>188.2959960182337</v>
@@ -36208,19 +36208,19 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M21" t="n">
-        <v>105.6897161719122</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N21" t="n">
-        <v>146.0448165450934</v>
+        <v>146.0781162761352</v>
       </c>
       <c r="O21" t="n">
-        <v>188.2959960182337</v>
+        <v>85.89179300628402</v>
       </c>
       <c r="P21" t="n">
         <v>123.175844592407</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>67.00108879027246</v>
       </c>
       <c r="L24" t="n">
-        <v>162.4831502796146</v>
+        <v>96.62835678506596</v>
       </c>
       <c r="M24" t="n">
-        <v>118.5407984783091</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N24" t="n">
         <v>200.1948230289689</v>
@@ -36454,7 +36454,7 @@
         <v>188.2959960182337</v>
       </c>
       <c r="P24" t="n">
-        <v>123.175844592407</v>
+        <v>40.37552474602336</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>67.00108879027246</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>162.4831502796146</v>
+        <v>72.96332930510356</v>
       </c>
       <c r="M27" t="n">
-        <v>105.6897161719122</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N27" t="n">
-        <v>146.0448165450934</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="O27" t="n">
         <v>188.2959960182337</v>
@@ -36694,7 +36694,7 @@
         <v>123.175844592407</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>67.00108879027246</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>162.4831502796146</v>
+        <v>72.96332930510356</v>
       </c>
       <c r="M30" t="n">
-        <v>114.0962296527468</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N30" t="n">
-        <v>129.7725066404075</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="O30" t="n">
         <v>188.2959960182337</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>67.00108879027246</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M33" t="n">
-        <v>121.962026076598</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N33" t="n">
-        <v>129.7725066404075</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="O33" t="n">
         <v>188.2959960182337</v>
       </c>
       <c r="P33" t="n">
-        <v>123.175844592407</v>
+        <v>41.52182004174732</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>105.6897161719122</v>
       </c>
       <c r="N36" t="n">
-        <v>146.0448165450934</v>
+        <v>138.1790201212422</v>
       </c>
       <c r="O36" t="n">
         <v>188.2959960182337</v>
@@ -37405,7 +37405,7 @@
         <v>123.175844592407</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>162.4831502796146</v>
       </c>
       <c r="M39" t="n">
-        <v>200.1948230289689</v>
+        <v>110.6750020544579</v>
       </c>
       <c r="N39" t="n">
         <v>200.1948230289689</v>
       </c>
       <c r="O39" t="n">
-        <v>181.5764948901064</v>
+        <v>188.2959960182337</v>
       </c>
       <c r="P39" t="n">
-        <v>40.37552474602336</v>
+        <v>123.175844592407</v>
       </c>
       <c r="Q39" t="n">
         <v>7.865796423851265</v>
@@ -37797,7 +37797,7 @@
         <v>152.1917393347099</v>
       </c>
       <c r="P41" t="n">
-        <v>78.09132734199125</v>
+        <v>78.09132734199108</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>67.00108879027246</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>162.4831502796146</v>
       </c>
       <c r="M42" t="n">
-        <v>114.0962296527468</v>
+        <v>188.9631148668705</v>
       </c>
       <c r="N42" t="n">
         <v>129.7725066404075</v>
@@ -37879,7 +37879,7 @@
         <v>123.175844592407</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.865796423851265</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>67.00108879027246</v>
       </c>
       <c r="L45" t="n">
-        <v>162.4831502796146</v>
+        <v>66.06466050071518</v>
       </c>
       <c r="M45" t="n">
-        <v>121.962026076598</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="N45" t="n">
-        <v>129.7725066404075</v>
+        <v>200.1948230289689</v>
       </c>
       <c r="O45" t="n">
         <v>188.2959960182337</v>
       </c>
       <c r="P45" t="n">
-        <v>123.175844592407</v>
+        <v>63.07342460652296</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>7.865796423851265</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
